--- a/data/metadata/Informe-03-02010301-030083-TM.xlsx
+++ b/data/metadata/Informe-03-02010301-030083-TM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>sexo-codigo</t>
   </si>
@@ -34,31 +34,25 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:estado-civil</t>
+    <t>iaest-measure:estado-civil</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>mapping-estado-civil.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
+    <t>URI-Municipio</t>
   </si>
 </sst>
 </file>
@@ -198,14 +192,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/metadata/Informe-03-02010301-030083-TM.xlsx
+++ b/data/metadata/Informe-03-02010301-030083-TM.xlsx
@@ -13,22 +13,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
-    <t>sexo-codigo</t>
+    <t>Municipio codigo</t>
   </si>
   <si>
-    <t>estado-civil</t>
+    <t>Estado civil</t>
   </si>
   <si>
-    <t>municipio-nombre</t>
+    <t>Estado civil, código</t>
   </si>
   <si>
-    <t>sexo</t>
+    <t>Sexo, código</t>
   </si>
   <si>
-    <t>municipio-codigo</t>
+    <t>Sexo</t>
   </si>
   <si>
-    <t>estado-civil-codigo</t>
+    <t>Municipio nombre</t>
   </si>
   <si>
     <t>null</t>
@@ -37,10 +37,10 @@
     <t>iaest-measure:estado-civil</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
-    <t>iaest-measure:sexo</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>medida</t>
@@ -49,7 +49,7 @@
     <t>dim</t>
   </si>
   <si>
-    <t>xsd:int</t>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>URI-Municipio</t>
@@ -140,16 +140,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -160,16 +160,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -180,16 +180,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-02010301-030083-TM.xlsx
+++ b/data/metadata/Informe-03-02010301-030083-TM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Municipio codigo</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>municipio-codigo</t>
+  </si>
+  <si>
+    <t>estado-civil</t>
+  </si>
+  <si>
+    <t>estado-civil-codigo</t>
+  </si>
+  <si>
+    <t>sexo-codigo</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>municipio-nombre</t>
   </si>
   <si>
     <t>null</t>
@@ -140,56 +158,76 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-02010301-030083-TM.xlsx
+++ b/data/metadata/Informe-03-02010301-030083-TM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Municipio codigo</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Estado civil, código</t>
   </si>
   <si>
+    <t>Nº personas</t>
+  </si>
+  <si>
     <t>Sexo, código</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>estado-civil-codigo</t>
   </si>
   <si>
+    <t>n-personas</t>
+  </si>
+  <si>
     <t>sexo-codigo</t>
   </si>
   <si>
@@ -52,25 +58,37 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:estado-civil</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
+    <t>iaest-dimension:estado-civil</t>
+  </si>
+  <si>
+    <t>iaest-measure:n-personas</t>
+  </si>
+  <si>
+    <t>iaest-dimension:sexo</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
+    <t>dim</t>
+  </si>
+  <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
   </si>
   <si>
     <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>mapping-estado-civil.xlsx</t>
+  </si>
+  <si>
+    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -149,85 +167,108 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-02010301-030083-TM.xlsx
+++ b/data/metadata/Informe-03-02010301-030083-TM.xlsx
@@ -112,17 +112,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,15 +137,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
